--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang8/2.XulyBH/XLBH2208_VinaGPS.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang8/2.XulyBH/XLBH2208_VinaGPS.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="79">
   <si>
     <t>STT</t>
   </si>
@@ -241,6 +241,33 @@
   </si>
   <si>
     <t>Thiết bị lỗi nguồn</t>
+  </si>
+  <si>
+    <t>125.212.203.250,20183</t>
+  </si>
+  <si>
+    <t>V.3.3.21.3_R22053002</t>
+  </si>
+  <si>
+    <t>Mất local GPS</t>
+  </si>
+  <si>
+    <t>Đổi mới thiết bị khác</t>
+  </si>
+  <si>
+    <t>ĐM</t>
+  </si>
+  <si>
+    <t>Thể</t>
+  </si>
+  <si>
+    <t>0032002B27</t>
+  </si>
+  <si>
+    <t>00320027D8</t>
+  </si>
+  <si>
+    <t>0032002B60</t>
   </si>
 </sst>
 </file>
@@ -964,8 +991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1180,7 +1207,9 @@
       <c r="B6" s="54">
         <v>44797</v>
       </c>
-      <c r="C6" s="54"/>
+      <c r="C6" s="54">
+        <v>44798</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>63</v>
       </c>
@@ -1191,19 +1220,31 @@
       <c r="G6" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="H6" s="37"/>
+      <c r="H6" s="37" t="s">
+        <v>78</v>
+      </c>
       <c r="I6" s="51"/>
       <c r="J6" s="1" t="s">
         <v>69</v>
       </c>
       <c r="K6" s="55"/>
       <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
+      <c r="M6" s="39" t="s">
+        <v>73</v>
+      </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="2"/>
+      <c r="O6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="P6" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="56"/>
       <c r="U6" s="67" t="s">
@@ -1221,7 +1262,9 @@
       <c r="B7" s="54">
         <v>44797</v>
       </c>
-      <c r="C7" s="54"/>
+      <c r="C7" s="54">
+        <v>44798</v>
+      </c>
       <c r="D7" s="37" t="s">
         <v>63</v>
       </c>
@@ -1232,17 +1275,35 @@
       <c r="G7" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="H7" s="37"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="55"/>
+      <c r="H7" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="I7" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K7" s="55" t="s">
+        <v>71</v>
+      </c>
       <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
+      <c r="M7" s="39" t="s">
+        <v>73</v>
+      </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="2"/>
+      <c r="O7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="P7" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="56"/>
       <c r="U7" s="68"/>
@@ -1258,7 +1319,9 @@
       <c r="B8" s="54">
         <v>44797</v>
       </c>
-      <c r="C8" s="54"/>
+      <c r="C8" s="54">
+        <v>44798</v>
+      </c>
       <c r="D8" s="37" t="s">
         <v>63</v>
       </c>
@@ -1269,17 +1332,31 @@
       <c r="G8" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="H8" s="37"/>
+      <c r="H8" s="37" t="s">
+        <v>76</v>
+      </c>
       <c r="I8" s="51"/>
-      <c r="J8" s="1"/>
+      <c r="J8" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="K8" s="55"/>
       <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
+      <c r="M8" s="39" t="s">
+        <v>73</v>
+      </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="2"/>
+      <c r="O8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="P8" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="S8" s="3"/>
       <c r="T8" s="56"/>
       <c r="U8" s="68"/>
@@ -1666,7 +1743,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -1879,7 +1956,7 @@
       </c>
       <c r="V28" s="9">
         <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W28" s="13"/>
     </row>
@@ -1911,7 +1988,7 @@
       </c>
       <c r="V29" s="9">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W29" s="13"/>
     </row>
@@ -2167,7 +2244,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W37" s="13"/>
     </row>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang8/2.XulyBH/XLBH2208_VinaGPS.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang8/2.XulyBH/XLBH2208_VinaGPS.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="82">
   <si>
     <t>STT</t>
   </si>
@@ -268,6 +268,15 @@
   </si>
   <si>
     <t>0032002B60</t>
+  </si>
+  <si>
+    <t>WP21120135S02694 / 0032001F73</t>
+  </si>
+  <si>
+    <t>WP21110052S00934 / 0032000D31</t>
+  </si>
+  <si>
+    <t>00320012D3 / WP21110052S00994</t>
   </si>
 </sst>
 </file>
@@ -992,7 +1001,7 @@
   <dimension ref="A1:X115"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1216,12 +1225,14 @@
       <c r="E6" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="F6" s="47"/>
+      <c r="F6" s="37" t="s">
+        <v>78</v>
+      </c>
       <c r="G6" s="37" t="s">
         <v>64</v>
       </c>
       <c r="H6" s="37" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I6" s="51"/>
       <c r="J6" s="1" t="s">
@@ -1271,12 +1282,14 @@
       <c r="E7" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="F7" s="47"/>
+      <c r="F7" s="37" t="s">
+        <v>77</v>
+      </c>
       <c r="G7" s="37" t="s">
         <v>64</v>
       </c>
       <c r="H7" s="37" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I7" s="51" t="s">
         <v>70</v>
@@ -1328,12 +1341,14 @@
       <c r="E8" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="F8" s="47"/>
+      <c r="F8" s="37" t="s">
+        <v>76</v>
+      </c>
       <c r="G8" s="37" t="s">
         <v>64</v>
       </c>
       <c r="H8" s="37" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I8" s="51"/>
       <c r="J8" s="1" t="s">
